--- a/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
+++ b/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
@@ -451,659 +451,889 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>008082</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>国寿安保研究精选混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>91.26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>008083</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>国寿安保研究精选混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>91.26</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>6.03</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>166801</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商聚潮新思维混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>76.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001521</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国寿安保成长优选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>550009</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信诚中小盘混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>86.91</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>570007</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺德优选30混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005188</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>海富通量化前锋股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005189</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>海富通量化前锋股票A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005287</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>海富通创业板综指增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005288</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>海富通创业板综指增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009147</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信新能源行业股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004223</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>金信多策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005977</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005978</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>009128</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>60.48</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>009129</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>60.48</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009140</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>永赢竞争力精选混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1113,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,15 +1364,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003241</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合A</t>
+          <t>华泰柏瑞中证光伏产业ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>98.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003242</t>
+          <t>590002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信量化发现灵活配置混合C</t>
+          <t>中邮核心成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.08</t>
+          <t>53.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003886</t>
+          <t>009147</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合A</t>
+          <t>建信新能源行业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>26.50</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>82.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003887</t>
+          <t>161040</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合C</t>
+          <t>富国创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>76.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004223</t>
+          <t>516880</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金信多策略精选灵活配置混合</t>
+          <t>银华中证光伏产业ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.12</t>
+          <t>27.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7561</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000592</t>
+          <t>519995</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信改革红利股票</t>
+          <t>长信金利趋势混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5433</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>008177</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>建信高股息主题股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83.91</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>82.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5276</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005175</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国寿安保消费新蓝海灵活配置混合</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4941</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>165313</t>
+          <t>009914</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>建信优势动力混合(LOF)</t>
+          <t>富国成长动力混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>73.82</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4723</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005977</t>
+          <t>002345</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合A</t>
+          <t>华夏高端制造灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4509</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005978</t>
+          <t>530001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中信保诚至兴灵活配置混合C</t>
+          <t>建信恒久价值混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>75.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3967</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007777</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中邮研究精选混合</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>77.12</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>69.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3621</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>165528</t>
+          <t>001166</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
+          <t>建信环保产业股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>53.26</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000209</t>
+          <t>011102</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>信诚新兴产业混合</t>
+          <t>天弘中证光伏产业指数A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.89</t>
+          <t>11.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3032</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1556,15 +1936,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>82.25</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>4.83</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009914</t>
+          <t>550001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富国成长动力混合</t>
+          <t>信诚四季红混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>76.00</t>
+          <t>6.23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2822</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009932</t>
+          <t>000592</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>永赢稳健增长一年持有期混合</t>
+          <t>建信改革红利股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>22.26</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>001521</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>国寿安保成长优选股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2396</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006969</t>
+          <t>000586</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>圆信永丰高端制造混合</t>
+          <t>景顺长城中小板创业板精选股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>90.70</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001166</t>
+          <t>008980</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>建信环保产业股票</t>
+          <t>中邮科技创新精选混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>011102</t>
+          <t>011103</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>天弘中证光伏产业指数A</t>
+          <t>天弘中证光伏产业指数C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>94.23</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>2.66</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011103</t>
+          <t>000209</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>天弘中证光伏产业指数C</t>
+          <t>信诚新兴产业混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1858</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>003886</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证光伏产业ETF</t>
+          <t>汇安丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>99.32</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001521</t>
+          <t>007777</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>国寿安保成长优选股票</t>
+          <t>中邮研究精选混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>87.52</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>77.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>516880</t>
+          <t>003887</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>银华中证光伏产业ETF</t>
+          <t>汇安丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>98.48</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>10</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519034</t>
+          <t>550009</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强A</t>
+          <t>信诚中小盘混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>009004</t>
+          <t>009932</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>海富通中证500指数增强C</t>
+          <t>永赢稳健增长一年持有期混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>001858</t>
+          <t>165313</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>建信鑫利灵活配置混合</t>
+          <t>建信优势动力混合(LOF)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>74.31</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
+          <t>73.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>001880</t>
+          <t>006969</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>长城中国智造灵活配置混合A</t>
+          <t>圆信永丰高端制造混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010000</t>
+          <t>008981</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>长城中国智造灵活配置混合C</t>
+          <t>中邮科技创新精选混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.80</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>519995</t>
+          <t>001858</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长信金利趋势混合</t>
+          <t>建信鑫利灵活配置混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>86.11</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>10</v>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>530001</t>
+          <t>006209</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>建信恒久价值混合</t>
+          <t>中信保诚新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>75.11</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>005189</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>海富通量化前锋股票A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>87.55</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2078,25 +2648,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>550009</t>
+          <t>004900</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>信诚中小盘混合</t>
+          <t>财通资管鑫锐回报混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>86.71</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2106,25 +2686,35 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>570007</t>
+          <t>001880</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>诺德优选30混合</t>
+          <t>长城中国智造灵活配置混合A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>590002</t>
+          <t>005175</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>中邮核心成长混合</t>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>82.66</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>165528</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>72.00</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>161040</t>
+          <t>008082</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>富国创业板两年定期开放混合</t>
+          <t>国寿安保研究精选混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>76.09</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>002345</t>
+          <t>004901</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华夏高端制造灵活配置混合</t>
+          <t>财通资管鑫锐回报混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>5</v>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -2246,25 +2876,35 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>005189</t>
+          <t>005977</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票A</t>
+          <t>中信保诚至兴灵活配置混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>005188</t>
+          <t>169201</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票C</t>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>3</v>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>005288</t>
+          <t>570007</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海富通创业板综指增强A</t>
+          <t>诺德优选30混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>9</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>005287</t>
+          <t>005188</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>海富通创业板综指增强C</t>
+          <t>海富通量化前锋股票C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>9</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>168002</t>
+          <t>005288</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+          <t>海富通创业板综指增强A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>69.79</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>169201</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>81.60</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>008980</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合A</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>74.76</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>10</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>008981</t>
+          <t>003241</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>中邮科技创新精选混合C</t>
+          <t>创金合信量化发现灵活配置混合A</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>74.76</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>10</v>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>005965</t>
+          <t>005287</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>安信中证500指数增强A</t>
+          <t>海富通创业板综指增强C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>005978</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
+          <t>中信保诚至兴灵活配置混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>007943</t>
+          <t>519034</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>富安达中证 500 指数增强</t>
+          <t>海富通中证500指数增强A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>10</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>008082</t>
+          <t>010000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合A</t>
+          <t>长城中国智造灵活配置混合C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>61.40</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>2</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>008083</t>
+          <t>007943</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合C</t>
+          <t>富安达中证 500 指数增强</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>61.40</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>2</v>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="54">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>008177</t>
+          <t>003242</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>建信高股息主题股票</t>
+          <t>创金合信量化发现灵活配置混合C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>82.85</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -2638,25 +3408,35 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>004900</t>
+          <t>008083</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合A</t>
+          <t>国寿安保研究精选混合C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>004901</t>
+          <t>004223</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>财通资管鑫锐回报混合C</t>
+          <t>金信多策略精选灵活配置混合</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>33.38</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>2</v>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>009147</t>
+          <t>009004</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>建信新能源行业股票</t>
+          <t>海富通中证500指数增强C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>82.28</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>3</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
+++ b/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3519,4 +3520,4542 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4135</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1380</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>73.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5256</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2941</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2735</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6856</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3636</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9991</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9163</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8944</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7924</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>28.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7784</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7065</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6893</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6854</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6800</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6787</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6459</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>398001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中海优质成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6392</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6068</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6064</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>46.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5894</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5052</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4363</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004148</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰多策略精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3867</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3436</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3322</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3279</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3109</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2417</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1725</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.95</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1135</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>45.43</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.28</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.76</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>72.30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001252</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中海进取收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.86</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
+++ b/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8058,4 +8059,5988 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H157"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>125.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3917</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>120.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7477</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>475.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8985</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0707</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>66.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9529</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9387</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001985</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>53.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6359</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6158</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4074</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3894</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2870</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2779</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2383</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1418</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0765</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002345</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏高端制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0084</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9328</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8737</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7077</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6594</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6080</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>72.65</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6033</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.72</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5608</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4661</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4524</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4055</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3980</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3960</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3946</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3714</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3589</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3158</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3139</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2578</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2446</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2095</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>32.67</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1865</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华盛利混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.31</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011306</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>富国低碳新经济混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>34.96</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>159918</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>嘉实中创400ETF</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>79.93</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
+++ b/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14043,4 +14044,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>156</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
+++ b/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14052,7 +14053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14063,17 +14064,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14083,14 +14104,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>156</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63.59</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8080</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -14099,14 +14142,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>118</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40.8</v>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2827</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -14115,14 +14180,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.8</v>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1859</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -14131,13 +14218,4901 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1848</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3995</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0878</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012541</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9508</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8420</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5762</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3759</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3106</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.2310</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1834</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1124</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9716</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9679</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9428</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9394</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8245</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7745</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7652</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7162</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6949</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6222</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5821</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2569</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1930</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1900</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1803</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1307</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1204</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005121</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国兴利增强债券</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006557</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>012542</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金鹰产业升级混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.05</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002730</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>350005</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天治中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>003855</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>003854</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇安丰华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>45.01</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>25.36</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003182</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003183</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华富弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006556</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>海富通研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002731</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华富华鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>129</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>156</v>
+      </c>
+      <c r="D3" t="n">
+        <v>63.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
+++ b/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19011,7 +19012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19022,17 +19023,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19042,14 +19063,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>129</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.22</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6447</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -19058,14 +19101,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>156</v>
-      </c>
-      <c r="D3" t="n">
-        <v>63.59</v>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.3203</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -19074,14 +19139,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>118</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.8</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.1876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -19090,14 +19177,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>56</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.8</v>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -19106,13 +19215,5183 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>52.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.6914</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1553</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>40.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8892</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1839</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0935</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8012</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8006</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>41.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7505</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>71.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6953</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>38.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.6437</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.5049</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1783</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161040</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>35.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1704</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0787</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>62.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0622</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0261</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9609</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8642</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8394</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8340</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8138</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7852</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7235</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7092</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6670</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6217</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4974</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4387</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3691</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3465</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3205</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>58.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1818</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1799</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160425</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华安创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014237</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007777</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中邮研究精选混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>75.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>30.01</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014238</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西藏东财中证新能源指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>63.66</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010001</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>010002</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>创金合信研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>137</v>
+      </c>
+      <c r="D2" t="n">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>129</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>156</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
+++ b/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24274,7 +24275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24285,17 +24286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -24305,14 +24326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>137</v>
-      </c>
-      <c r="D2" t="n">
-        <v>68.66</v>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4800</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -24321,14 +24364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>129</v>
-      </c>
-      <c r="D3" t="n">
-        <v>52.22</v>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4551</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -24337,14 +24402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>156</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63.59</v>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5.5507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -24353,14 +24440,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>118</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40.8</v>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>162.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.6247</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -24369,14 +24478,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>56</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.8</v>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.4748</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -24385,13 +24516,5530 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.4248</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>125.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.9850</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>45.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.8381</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>141.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.8170</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>59.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3.8108</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.6239</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000603</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>72.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.6064</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>52.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.4605</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.2204</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9886</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.7126</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.6411</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4870</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3263</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2986</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2830</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1767</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1584</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>35.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0609</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0556</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9644</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9470</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9457</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9317</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9180</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7540</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7314</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7053</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6150</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5918</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5480</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4815</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4801</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4759</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>76.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4057</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3939</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3907</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3565</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3376</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>52.04</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3168</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3112</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2885</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2863</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2522</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1661</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1316</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1243</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>71.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>35.96</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013105</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>97.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006912</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长城久泰沪深300指数 C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>013106</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>85.70</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004775</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉实新添泽定期开放混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>26.97</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>52.04</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>64.34</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>易方达产业升级一年封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>21.49</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>147</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94.28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>137</v>
+      </c>
+      <c r="D3" t="n">
+        <v>68.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>129</v>
+      </c>
+      <c r="D4" t="n">
+        <v>52.22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>156</v>
+      </c>
+      <c r="D5" t="n">
+        <v>63.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>118</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>56</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>22</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
+++ b/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="D2" t="n">
-        <v>94.28</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D3" t="n">
-        <v>68.66</v>
+        <v>94.28</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D4" t="n">
-        <v>52.22</v>
+        <v>68.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D5" t="n">
-        <v>63.59</v>
+        <v>52.22</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D6" t="n">
-        <v>40.8</v>
+        <v>63.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D7" t="n">
-        <v>14.8</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>22</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.11</v>
       </c>
     </row>
@@ -600,6 +617,8030 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H211"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>177.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4396</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.9039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>48.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6061</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.3556</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>128.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.2150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>57.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.0282</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.8573</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.3302</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.7723</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>39.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2334</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>69.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.1667</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信兴润一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9674</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8860</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.6376</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.83</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.5955</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519995</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>45.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.5016</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.4912</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.4873</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.2755</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.1934</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1034</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0998</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.0741</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0210</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.9812</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9409</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8775</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8504</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8311</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7731</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7634</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7479</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7245</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6771</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6631</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6249</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6083</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5574</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5510</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>19.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5208</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4916</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信改革红利股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4623</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>015039</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长信金利趋势混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3931</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.22</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008186</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012332</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3146</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2907</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2494</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2449</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2297</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>62.02</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008244</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2099</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2097</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.10</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013755</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008187</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>淳厚信睿核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1159</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006511</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博道卓远混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>516290</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>73.40</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014541</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.89</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012885</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>159609</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>浦银安盛中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>159618</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>160529</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006013</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014605</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012259</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012886</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>007826</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博道志远混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>014513</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>金鹰远见优选混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>016254</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010313</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>013756</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中银证券内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>014604</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>007825</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>博道志远混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014703</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博时时代领航混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>519224</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>海富通欣荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006014</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>易方达鑫转招利混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>014514</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>金鹰远见优选混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>000743</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>红塔红土盛世普益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>013242</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>北信瑞丰优势行业股票</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>012258</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>009156</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>海富通富泽混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>44.98</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>006512</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>博道卓远混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>012333</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>上银鑫尚稳健回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>61.83</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>519223</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>海富通欣荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>97.84</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>014704</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>博时时代领航混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>60.85</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>014542</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>61.34</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>002023</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>016258</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>60.73</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>009157</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>海富通富泽混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>016269</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>建信改革红利股票C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>46.20</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>华融融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>015745</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>上银鑫卓混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>013846</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>上银鑫恒混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>016291</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>016255</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>016292</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>002024</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>红塔红土稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>62.51</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6230,7 +14271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11492,7 +19533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16450,7 +24491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -22434,7 +30475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26972,7 +35013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29156,7 +37197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
+++ b/数据整理/stocks/A股/创业板/300316-晶盛机电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D2" t="n">
-        <v>93.7</v>
+        <v>72.81</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="D3" t="n">
-        <v>94.28</v>
+        <v>93.7</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D4" t="n">
-        <v>68.66</v>
+        <v>94.28</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D5" t="n">
-        <v>52.22</v>
+        <v>68.66</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="D6" t="n">
-        <v>63.59</v>
+        <v>52.22</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="D7" t="n">
-        <v>40.8</v>
+        <v>63.59</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
-        <v>14.8</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,922 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>56</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>22</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005288</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005287</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>海富通创业板综指增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1526,7276 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H191"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.6550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>130.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515790</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>137.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011363</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0899</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.4041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>570001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011822</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4578</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4504</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3115</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.9040</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信兴润一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8467</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.7600</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>570008</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德周期策略混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.4900</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>550008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3969</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3566</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3549</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1467</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011364</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方兴润价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1255</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>38.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0456</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0150</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>550002</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9850</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>33.34</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9735</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011102</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9537</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006392</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9399</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014199</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8842</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012301</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达核心智造混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8423</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7812</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信健康民生混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7652</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6891</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.6405</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6359</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501091</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实瑞熙三年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6201</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5803</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5713</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5654</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159857</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5214</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>952004</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰君安君得明混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5146</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011841</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4881</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4617</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信改革红利股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4242</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>320001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>诺安平衡混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.86</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4225</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011823</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>易方达产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4083</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014849</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信健康民生混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3627</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501088</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实瑞虹三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007895</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实价值成长混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3240</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516880</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3169</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009931</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2729</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009681</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2468</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012364</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012365</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009381</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011842</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实兴锐优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013365</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011967</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159864</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国泰中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1334</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>952035</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国泰君安君得诚混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013867</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006648</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇安多因子混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014200</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信沃信一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>016256</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011346</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>淳厚鑫淳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014605</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0923</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009682</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159863</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011966</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>159609</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>浦银安盛中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>98.19</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012723</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516290</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006649</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇安多因子混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015048</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012885</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159618</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015092</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002577</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方新兴龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012886</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华夏中证光伏产业指数C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012454</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009939</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>淳厚欣享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010558</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>012259</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010137</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>75.93</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>014541</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012272</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>渤海汇金创新价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>516180</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98.18</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>002216</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>016254</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>信诚精萃成长混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>002217</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012722</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>平安中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>970043</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>014604</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>嘉实中证光伏产业指数A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004091</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012669</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010559</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇安鑫利优选混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>165317</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>建信丰裕多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>016269</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>建信改革红利股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>012455</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>淳厚鑫悦混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>011254</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>016258</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中信保诚创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012670</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>南方新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010303</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>512870</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>南华中证杭州湾区ETF</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>013366</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>汇添富产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>970045</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>012258</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>天弘鑫悦成长混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006540</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>南方绩优成长混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>970044</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>东吴裕盈一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>64.17</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>013868</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>汇安优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>014861</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>159815</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>招商中证浙江100ETF</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010304</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创盈混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010138</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化创享混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009382</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>汇安核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>014542</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>国新国证融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>011255</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>长江量化科技精选一个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>016386</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>永赢低碳环保智选混合A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>004092</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>博时沪港深价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>015093</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇安远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>014550</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>011391</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>75.93</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>014677</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>中信保诚至远动力混合E</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>83.00</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>016387</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>永赢低碳环保智选混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>国新国证融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>014862</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>申万菱信双禧混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>31.48</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>016255</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>信诚优胜精选混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>84.54</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>016291</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>016292</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8640,7 +16819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14271,7 +22450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19533,7 +27712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24491,7 +32670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30475,7 +38654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35013,7 +43192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -37195,896 +45374,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009147</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信新能源行业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>22.93</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6260</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3745</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>550001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>信诚四季红混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.26</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2524</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001521</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国寿安保成长优选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2184</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>166801</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>浙商聚潮新思维混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.69</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1994</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006209</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1086</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>550009</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信诚中小盘混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0932</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005189</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>海富通量化前锋股票A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0512</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005977</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008082</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0241</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>570007</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺德优选30混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.89</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0227</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009128</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>60.48</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005288</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>海富通创业板综指增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005188</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>海富通量化前锋股票C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009140</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>永赢竞争力精选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009129</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>明亚价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>60.48</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005287</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>海富通创业板综指增强C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519034</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0073</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005978</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中信保诚至兴灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.99</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>008083</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004223</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>金信多策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009004</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>海富通中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>